--- a/class35/Test.xlsx
+++ b/class35/Test.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofiane\eclipse-workspace\JavaBatch8Test1\src\com\syntax\class35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DA16E4-897C-41C7-829A-0BAD59C99185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3056460-69F2-4897-9D2D-4B8FD04C168E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{60FD6BD3-7731-4718-A8D7-958A84F39CE0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{60FD6BD3-7731-4718-A8D7-958A84F39CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -83,17 +83,16 @@
     <t>Programming</t>
   </si>
   <si>
-    <t>Kerim</t>
-  </si>
-  <si>
-    <t>mahmut</t>
+    <t>Mahmut</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,18 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835C3AD-E4CC-480A-A982-2C94B05ED858}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="18.36328125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="18.26953125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="2" width="30.08984375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="19.81640625" collapsed="false"/>
+    <col min="1" max="1" width="18.36328125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.08984375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -469,8 +469,8 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="b">
-        <v>1</v>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -483,6 +483,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -494,6 +497,9 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -505,6 +511,9 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -515,6 +524,9 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2C921A-B78F-475D-B56D-50DF9B432317}">
   <dimension ref="C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -535,7 +547,7 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/class35/Test.xlsx
+++ b/class35/Test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofiane\eclipse-workspace\JavaBatch8Test1\src\com\syntax\class35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3056460-69F2-4897-9D2D-4B8FD04C168E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844BE02-724E-406C-A054-F7317C45F832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{60FD6BD3-7731-4718-A8D7-958A84F39CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Test2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>First Name</t>
   </si>
@@ -44,49 +45,76 @@
     <t>Last Name</t>
   </si>
   <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Domenech</t>
+  </si>
+  <si>
+    <t>Being beaten by wife all the time</t>
+  </si>
+  <si>
+    <t>Sabeen</t>
+  </si>
+  <si>
+    <t>Sadiq</t>
+  </si>
+  <si>
+    <t>To chase husband</t>
+  </si>
+  <si>
+    <t>Brayan</t>
+  </si>
+  <si>
+    <t>Galarza</t>
+  </si>
+  <si>
+    <t>Gamer</t>
+  </si>
+  <si>
+    <t>Asghar</t>
+  </si>
+  <si>
+    <t>Nazir</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Mahmut</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Qassim</t>
+  </si>
+  <si>
+    <t>Sohil</t>
+  </si>
+  <si>
+    <t>sofiane</t>
+  </si>
+  <si>
+    <t>ouniche</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>kourbach</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
     <t>Hobby</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Domenech</t>
-  </si>
-  <si>
-    <t>Being beaten by wife all the time</t>
-  </si>
-  <si>
-    <t>Sabeen</t>
-  </si>
-  <si>
-    <t>Sadiq</t>
-  </si>
-  <si>
-    <t>To chase husband</t>
-  </si>
-  <si>
-    <t>Brayan</t>
-  </si>
-  <si>
-    <t>Galarza</t>
-  </si>
-  <si>
-    <t>Gamer</t>
-  </si>
-  <si>
-    <t>Asghar</t>
-  </si>
-  <si>
-    <t>Nazir</t>
-  </si>
-  <si>
-    <t>Programming</t>
-  </si>
-  <si>
-    <t>Mahmut</t>
-  </si>
-  <si>
-    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -447,7 +475,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,32 +484,32 @@
     <col min="2" max="2" width="18.26953125" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="30.08984375" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="8.7265625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -489,13 +517,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>30</v>
@@ -503,13 +531,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>50</v>
@@ -517,13 +545,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>70</v>
@@ -547,7 +575,7 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -557,10 +585,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080B4AE1-1FF9-4ABC-AEE1-9079EB40741E}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB2E707-2F03-429D-B449-2B9474B2841C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
